--- a/content/excel/Fichas década9 (1970).xlsx
+++ b/content/excel/Fichas década9 (1970).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="-75" windowWidth="19320" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="105" yWindow="-75" windowWidth="19320" windowHeight="15480" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ÁREA DE IDENTIFICACIÓN" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="652">
   <si>
     <t>Pelechian plantea un film de enfrentamientos. El de las manifestaciones de la naturaleza, y de cómo el hombre interactúa en ella; el enfrentamiento entre dos tipos de montaje, y el enfrentamiento sonoro. Lo bello y lo feo. La contemplación (lo bello) y la influencia de Pelechian con respecto a la manipulación del tiempo y el sonido (duración de tomas largas y música armónica), sitúa una mirada, en este momento, en estado de gracia. La interacción del hombre en la naturaleza (lo feo), los planos acortados y los sonidos naturales sincrónicos, nos aleja del hábitat deseado en un principio. Una representación del caos a traves de figuras apocalípticas de manadas de animales aterrorizados, pero que en la inercia de la huida encuentran el contrapunto de nubes de pájaros que escapan de la tierra y de los hombres, que la colonizan al ruido de los fusiles.http://www.divxclasico.com/foro/viewtopic.php?t=48100</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -39,17 +39,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1´54"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Franz Simon/Ernesto Veiga de Oliveira/Benjamín E. Pereira</t>
-  </si>
-  <si>
-    <t>1´21"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Franz Simon</t>
   </si>
   <si>
@@ -84,10 +73,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VHS / DVD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Copia</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -108,18 +93,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VHS / DVD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Copia</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Bblanco y negro</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Sin sonido</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -164,10 +141,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9´</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Artavazd Pelechian</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -181,10 +154,6 @@
   </si>
   <si>
     <t>Armenia</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>28´</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -347,10 +316,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Salvador Allende, Augusto Pinochet, Alejandro Rojas, Alfonso Ansieta, Fernando Castillo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MXIM-AV-1-9-17</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -387,10 +352,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Salvador Allende pone en marcha un programa de profundas transformaciones sociales y políticas. Desde el primer día la derecha organiza contra él una serie de huelgas salvajes mientras la Casa Blanca le asfixia económicamente. A pesar del boicot --en marzo de 1973-- los partidos que apoyan a Allende obtienen el 43,4 por ciento de los votos. La derecha comprende que los mecanismos legales ya no les sirven. De ahora en adelante su estrategia será la estrategia del golpe de estado. “La Batalla de Chile” es un fresco que muestra paso a paso estos hechos que conmovieron al mundo.http://www.patricioguzman.com/index.php?page=films_dett&amp;fid=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Blanco y negro virado a naranja</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -421,10 +382,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>96´</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.patricioguzman.com/index.php?page=films_dett&amp;fid=1</t>
   </si>
   <si>
@@ -476,10 +433,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>32´</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Chris Marker</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -492,10 +445,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>100´</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Equipo Tercer Año</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -524,10 +473,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Luis Echeverría, Gustavo Díaz Ordaz, Rubén Jaramillo, Othón Salazar, Valentín Campa, Demetrio Vallejo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>El golpe de estado</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -587,254 +532,218 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Grabación de campo, voz en off, conducción, entrevistas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Español (España)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35 mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Registros fílmicos de archivo, fotografía, gráficos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voz en off, conducción, música de época, animación</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grabación de campo, voz en off, conducción, entrevistas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testimonios videorales</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noticiero ICAIC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no. 627</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Santiago Álvarez</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Español</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VHS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pedro L. Fernández Vila</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pedro Chaskel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Español</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VHS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blanco y negro virado a sepia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Registros fílmicos de archivo,  testimonios videorales, </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Música de época, intertítulos, incidentales, animación</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grabación de campo, voz en off, conducción, música de época</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Francía</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>La embajada</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L´Ambassade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pierre Braunberger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Les tambours d´avant (Tourou et Bitti)</t>
+  </si>
+  <si>
+    <t>Instituto Cubano del Arte e Industria Cinematográficas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testimonios videorales, entrevistas, gráficos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Francés</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DVD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Color</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pintura, cartografía, música de época, registros radiofónicos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blanco y negro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ciné- Transe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Histoire d´un document</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oscar Menéndez</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rodolfo Alcaraz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Janine Martín</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edgardo Cantón</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rodolfo Alcaraz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>En 1970, huyendo de la represión ejercida contra militantes del 68, Oscar Menéndez y rodolfo Alcaraz se trasladaron a europa llevando el material fílmico del movimiento estudiantil en busca de productores para relaizar la película. A principios de 1971 la Radio y Televisión Francesa (ORTF) aceptó el proyecto de los mexicanos, quienes trabajaron durante casi un año que duró la producción de este film con la promesa de la ORTF de que al terminar, se proyectaría en la red de televisión europea. Esto no fue posible por la intervención directa contra la película del entonces gobierno de Luis Echeverría Álvarez. En noviembre del 2004 en el V Foro Internacional sobre las Nuevas Tendencias del Documental, Escenarios 2004, que realizó el CEntro de Capacitación Cinematográfica (CCC) en la Ciudad de México, se pudo  exhibir la película por primera vez. Ahora, 34 años depués, presentamos esta película narrada en francés y subtitulada en espñaol que nos ofrece un episodio cinematográfico inédito ya que la película está realizada clandestinamente en 1970 en el penal de Lecumberri con los presos políticos de esa época. Esta obra reconfirma la vigencia de la lucha democrática sostenida por el movimiento estudiantil del 68.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edward S. Curtis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the land of the war canoes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Santiago Álvarez Román</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instituto Cubano del Arte e Industria Cinematográficas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blanco y negro virado a rojo, negativo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Reproductor VHS y monitor </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gloria Argüelles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ciudad de México: Cárcel preventiva de Lecumberri, Plaza de las tres culturas de Tlatelolco, Zócalo, Palacio Nacional, ENAH, CU, IPN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adalberto Hernández, Santiago Peñate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sergio San Pedro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>La batalla de Chile: la lucha de un pueblo sin armas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Chile</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grabación de campo, voz en off, conducción, entrevistas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Español (España)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>35 mm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Registros fílmicos de archivo, fotografía, gráficos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Voz en off, conducción, música de época, animación</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grabación de campo, voz en off, conducción, entrevistas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Testimonios videorales</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Noticiero ICAIC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>no. 627</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cuba</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30´</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Santiago Álvarez</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Español</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VHS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pedro L. Fernández Vila</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pedro Chaskel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Español</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VHS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blanco y negro virado a sepia</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Registros fílmicos de archivo,  testimonios videorales, </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Música de época, intertítulos, incidentales, animación</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grabación de campo, voz en off, conducción, música de época</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Francía</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21´17"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>La embajada</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L´Ambassade</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1957, 1962, 1968, 1969, 1979, 1971. 2 de octubre de 1968</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pierre Braunberger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Les tambours d´avant (Tourou et Bitti)</t>
-  </si>
-  <si>
-    <t>Instituto Cubano del Arte e Industria Cinematográficas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Testimonios videorales, entrevistas, gráficos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Francés</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DVD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Color</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pintura, cartografía, música de época, registros radiofónicos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blanco y negro</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ciné- Transe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Histoire d´un document</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>México / Francia</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>49´</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oscar Menéndez</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rodolfo Alcaraz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Janine Martín</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edgardo Cantón</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rodolfo Alcaraz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>En 1970, huyendo de la represión ejercida contra militantes del 68, Oscar Menéndez y rodolfo Alcaraz se trasladaron a europa llevando el material fílmico del movimiento estudiantil en busca de productores para relaizar la película. A principios de 1971 la Radio y Televisión Francesa (ORTF) aceptó el proyecto de los mexicanos, quienes trabajaron durante casi un año que duró la producción de este film con la promesa de la ORTF de que al terminar, se proyectaría en la red de televisión europea. Esto no fue posible por la intervención directa contra la película del entonces gobierno de Luis Echeverría Álvarez. En noviembre del 2004 en el V Foro Internacional sobre las Nuevas Tendencias del Documental, Escenarios 2004, que realizó el CEntro de Capacitación Cinematográfica (CCC) en la Ciudad de México, se pudo  exhibir la película por primera vez. Ahora, 34 años depués, presentamos esta película narrada en francés y subtitulada en espñaol que nos ofrece un episodio cinematográfico inédito ya que la película está realizada clandestinamente en 1970 en el penal de Lecumberri con los presos políticos de esa época. Esta obra reconfirma la vigencia de la lucha democrática sostenida por el movimiento estudiantil del 68.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edward S. Curtis</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>In the land of the war canoes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cuba</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16´</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Santiago Álvarez Román</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Instituto Cubano del Arte e Industria Cinematográficas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blanco y negro virado a rojo, negativo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Reproductor VHS y monitor </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gloria Argüelles</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ciudad de México: Cárcel preventiva de Lecumberri, Plaza de las tres culturas de Tlatelolco, Zócalo, Palacio Nacional, ENAH, CU, IPN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Salvador Allende</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adalberto Hernández, Santiago Peñate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sergio San Pedro</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>La batalla de Chile: la lucha de un pueblo sin armas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chile</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>90´</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -962,9 +871,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Abel Hurtado/José Luis Mariño/Jaime Tello</t>
-  </si>
-  <si>
     <t>Marcelino Auppart (c.u.e.c.)</t>
   </si>
   <si>
@@ -1218,9 +1124,6 @@
   <si>
     <t>Sinopsis</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Insituto Nacional Indigenista/Gobierno del Estado de Guanajuato/Secretaría de Recursos Hidráulicos/Secretaría de salubridad y asistencia pública/Banco Nacional de Crédito Agrícola/CONASUPO/CAPFCE/Instituto Nacional de la Vivienda</t>
   </si>
   <si>
     <t>José Luis Salas</t>
@@ -1341,9 +1244,6 @@
     <t>Graham Collier</t>
   </si>
   <si>
-    <t>Asistentes: Simon Hinkly/Nick Hutchings</t>
-  </si>
-  <si>
     <t>Acción en giros</t>
   </si>
   <si>
@@ -1380,15 +1280,9 @@
     <t>NTSC</t>
   </si>
   <si>
-    <t>20´</t>
-  </si>
-  <si>
     <t>EE.UU.</t>
   </si>
   <si>
-    <t>Timothy Asch/Napoleon Chagnon</t>
-  </si>
-  <si>
     <t>Timothy Asch</t>
   </si>
   <si>
@@ -1398,9 +1292,6 @@
     <t>Paul E. Bugos JR</t>
   </si>
   <si>
-    <t>Paul Bugos/Marilyn Luke</t>
-  </si>
-  <si>
     <t>Documentary Educational Resources</t>
   </si>
   <si>
@@ -1430,10 +1321,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>30´</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Jean Rouch</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1458,10 +1345,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9´</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Asistente de realización:  Lam Dia-Hama</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1486,10 +1369,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>69´</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Pier Paolo Pasolini</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1563,9 +1442,6 @@
     <t>Fotografía</t>
   </si>
   <si>
-    <t>Dialectos de Yanomamo en Brasil</t>
-  </si>
-  <si>
     <t>Les tambours d´avant ( Tourou et Bitti)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1574,18 +1450,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Salvador Allende, Fidel Castro, Ernesto "Che" Guevara, charles de Gaulle, Giangiacomo Feltrinelli, Qing Jiang, V.I. Lenin, André Malraux, Zedong Mao, Richard Nixon, augusto Pinochet, Georges Pompidou, Joseph Stalin, Nguyen Giap Vo, Enlai Zhou</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>El fonde del aire es rojo / A grin withaout a cat</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Bolivia, Cuba, Vietnam, Congo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Grabación de campo, voz en off, narració, conducción, entrevistas</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1626,18 +1494,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Un petit village dépeuplé de l'Aude, un vieux couple confie à la caméra du "vacancier", simple caméra à ressort, les souvenirs d'un autre temps : la guerre, la maladie, la mort...Le cinéaste construit le film comme un recueil d'images autonomes qui, réunies, composent son univers mental : le bonheur familial, fragments de quelques-uns de ses films antérieurs, hommage au saxophoniste Ben Webster, deux poèmes des grands poètes contemporains Remco Campert et Lucebert, un portrait du grand-père du cinéaste qui lui avait appris la photographie dès l'âge de douze ans... http://www.film-documentaire.fr/Les_Vacances_du_cin%C3%A9aste.html,film,8620</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paises bajos/Francia</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>37´45"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Cine-Rencontre</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1658,10 +1514,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Antonio López sierra, vicente Copete, Bernardo Sánchez Bascuñana</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Acácio de Almeida, Alfredo F. Mayo, Augusto García Balbuena</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1714,10 +1566,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Color, Blanco y negro, blanco y negro virado a rojo, amarillo, verde y azul</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Monoaural</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1818,10 +1666,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>27´51"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Marguerite Duras</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1846,10 +1690,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>103´</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Basilio Martín Patino</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1874,10 +1714,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Alemania: Berlín. España: Badajoz, Andalucía, Granada, Sevilla, Burgos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1926, 1924, 1933</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1894,10 +1730,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>74´</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Georges Rouquier</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1938,10 +1770,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>29´46"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Werner Herzog</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2062,10 +1890,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1 vhs / 1 dvd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>copia</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2139,10 +1963,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">agosto 1976. 6 de mayo de 1902. 1901. 1956. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Documental</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2230,12 +2050,6 @@
     <t>Elías Querejeta</t>
   </si>
   <si>
-    <t>Felicidad Blanc, Leopoldo María Panero, Michi Panero, Juan Luis Panero</t>
-  </si>
-  <si>
-    <t>Teo Escamilla</t>
-  </si>
-  <si>
     <t>http://www.elmundo.es/elmundo/2012/04/20/cultura/1334915405.html</t>
   </si>
   <si>
@@ -2245,29 +2059,18 @@
     <t>Intertitulos, grabación de campo</t>
   </si>
   <si>
-    <t xml:space="preserve">At Jie cattle camps in Uganda men often gather under a special tree to make leather and wooden goods and talk, relax, and sleep. This brilliant ethnographic documentary by renowned filmmakers David and Judith MacDougall captures one particularly riveting discussion one afternoon under the men's tree.
-The conversation on this particular afternoon becomes a kind of reverse ethnography, centering on the European's most noticeable possession, the motor vehicle. This is a uniquely delicate and intimate film, filled with the humor of the Jie and, implicitly, the ironic wit of the filmmakers. (Fuente: Berkeley Media LLC: http://www.berkeleymedia.com/catalog/berkeleymedia/films/anthropology_world_cultures/african_studies/under_the_mens_tree)
-</t>
-  </si>
-  <si>
     <t>David MacDougall</t>
   </si>
   <si>
     <t>Judith MacDougall</t>
   </si>
   <si>
-    <t>14´36"</t>
-  </si>
-  <si>
     <t>Uganda</t>
   </si>
   <si>
     <t>Antropología visual</t>
   </si>
   <si>
-    <t>Australia/USA</t>
-  </si>
-  <si>
     <t>Idioma Jie, con subtitulos en ingles</t>
   </si>
   <si>
@@ -2278,13 +2081,6 @@
   </si>
   <si>
     <t>1968/1970</t>
-  </si>
-  <si>
-    <t>This classic ethnographic documentary, by the renowned filmmaking team of David and Judith MacDougall, explores the nomadic life of the Jie of Uganda.
-Filmada en un campamento de ganado Jie cerca del límite de Acholi, en el distrito de Karamoja en el noreste de Uganda. El Jie, un pueblo perdominantly pastorales, dejar sus hogares en la estación seca y el rebaño a su ganado a los campos de temporada, o nawi. Documentos de los preparativos para el ganado en coche y muestra la vida en el campamento, donde los hombres hablan y hacen que los objetos de cuero y los niños juegan. (Fuente: OCLC WorldCat: http://www.worldcat.org/title/nawi/oclc/317009926)</t>
-  </si>
-  <si>
-    <t>David MacDougall ; Judith MacDougall ; Churchill Films.</t>
   </si>
   <si>
     <t>MXIM-AV-1-9-30</t>
@@ -2363,9 +2159,6 @@
       </rPr>
       <t>no comían carne de estos grandes cetáceos. Parece que ellos no les importó la mistificación: estaban encantados con los dólares de plata que les daba Curtis, y con la posibilidad de recrear sus ceremonias tradicionales, que estaban prohibidas.</t>
     </r>
-  </si>
-  <si>
-    <t>Estados Unidos/Canadá</t>
   </si>
   <si>
     <t>World Film Corporation</t>
@@ -2488,9 +2281,6 @@
 Nos volvemos a encontrar ante un montaje excepcional de Santiago Álvarez a base de imágenes y fotografías relacionadas con el golpe de estado de Pinochet en Chile. La consecución de las imágenes está acompañada con la voz de Víctor Jara ("Amanda", "El alma cubierta de banderas" y "Plegaria a un labrador") y de Violeta Parra (Qué dirá el santo padre?).</t>
   </si>
   <si>
-    <t xml:space="preserve">13 de septiembre de 1973, </t>
-  </si>
-  <si>
     <r>
       <t>La película dura veinte minutos y el espectador asume que sucede en una embajada situado en una gran ciudad de América del Sur, después de un golpe de Estado (probablemente </t>
     </r>
@@ -2534,12 +2324,259 @@
   <si>
     <t xml:space="preserve">Marco, Augusto Pinochet, Tsikos, Carole, Maria, </t>
   </si>
+  <si>
+    <t>Patricio Guzmán Patricia Boero, Alicia Crespo y Jorge Sánchez</t>
+  </si>
+  <si>
+    <t>Estudio Heynowsky, Und Scheumann, Noticiario Chile Films, Archivo ICAIC, Pedro Chaskel, Revista Chile Hoy, ISKRA</t>
+  </si>
+  <si>
+    <t>Patricio Guzmán</t>
+  </si>
+  <si>
+    <t>“La Batalla de Chile” es un documental histórico que en las décadas de los 70 y 80 fue distribuido en 35 países del mundo. No es un filme de archivo: es un documento filmado en el momento mismo de producirse los hechos. Su autor y director trabajó con un equipo en medio de los acontecimientos. El material virgen (película de l6 MM en blanco y negro) fue una contribución del documentalista francés Chris Marker y el montaje se realizó gracias a la colaboración del Instituto de Cinematografía Cubano (ICAIC). Jorge Müller Silva (el cámara del filme) fue secuestrado por la policía militar de Pinochet en noviembre de 1974. Hasta hoy se desconoce su paradero. Es uno de los 3.000 desaparecidos que todavía hay en Chile. “La Batalla de Chile” ha sido objeto de la censura en Chile y nunca ha sido emitida por la televisión pública.</t>
+  </si>
+  <si>
+    <t>Salvador Allende pone en marcha un programa de profundas transformaciones sociales y políticas. Desde el primer día la derecha organiza contra él una serie de huelgas salvajes mientras la Casa Blanca le asfixia económicamente. A pesar del boicot --en marzo de 1973-- los partidos que apoyan a Allende obtienen el 43,4 por ciento de los votos. La derecha comprende que los mecanismos legales ya no les sirven. De ahora en adelante su estrategia será la estrategia del golpe de estado. “La Batalla de Chile” es un fresco que muestra paso a paso estos hechos que conmovieron al mundo.http://www.patricioguzman.com/index.php?page=films_dett&amp;fid=1</t>
+  </si>
+  <si>
+    <t>100'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile, Mina Chuquicamata, Mina El teniente, Universidad Católica, Tacamar, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 de mayo 1973, 15 de junio, 27 de junio, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 de septiembre de 1973, 29 de junio 1973, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvador Allende, General Carlos Prats, Milía, Central Eléctrica de Trabajadores, Manuel Rodriguez, Sociedad Nacional de Agricultura, CIA, Partido Democrata Cristiano, Izquierd Unida, Unidad Popular,  MOPARE, Ismael Huerta,  Guillermo Medina, Alejandro Rojas,, Víctor García Garzena, Fernando Castillo,  </t>
+  </si>
+  <si>
+    <t>http://www.margencero.com/musica/jara/birmania%202.htm, el dvd tiene las dos partes, la segunda del golpe de Estado está incompleta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile, Carretera Panamericana, Santiago, Cerillo, Vicuña, Valtierra, Plaza Bulnes, Valparaíso,  Recoleta, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvador Allende, Augusto Pinochet, Alejandro Rojas, Alfonso Ansieta, Fernando Castillo, Carlos Prats, José Tohá, Mario Sepulveda, Guillermo Pickering, Teniente Pérez, Roberto Souper, Uros Domic, Rafael Veillena, Carlos Altamirano, Óscar Guillermo Guillén, Julio Estuardo, CUT, Arturo Araya Peeters, Gustavo Leigh, José Toribio Merino, César Mendoza, Gustavo Leigh Guzmán, </t>
+  </si>
+  <si>
+    <t>Noticiero elaborado por Santiago Álvarez sobre las declaraciones realizadas por Fidel Castro con respecto al golpe de estado en Chile y su postura.</t>
+  </si>
+  <si>
+    <t>29'30''</t>
+  </si>
+  <si>
+    <t>“El fondo del aire es rojo”  (1977) de Chris Marker abarca las décadas de los 60 y 70, desde el punto de vista de los principales movimientos sociales y revoluciones que vio el mundo. Lugares como Vietnam, La primavera de Praga, Chile, Cuba, París y su mayo del 68, México y la Plaza de las Tres Culturas… y tanto protagonistas anónimos como celebridades como Brezhnev, Fidel Castro, Jorge Semprún,  “Che” Guevara, Emil Zapotek, etcétera, aparecen en los fotogramas de “El fondo del aire es rojo”</t>
+  </si>
+  <si>
+    <t>Luciano Berio</t>
+  </si>
+  <si>
+    <t>90'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Paz, Bolivia, Cuba, Sierra Mestra, Vietnam, Canthó, China, Congo, Ca Mao,  México, Suecia, París, Estados Unidos, Moscú, Nueva Delhi, Argel, Indochina, Berlin, San Francisco, Boulevard Saint Michel, Metro Charone,  Rhodia, Montaña Halcón, Venezuela, Caracas, Santiago de Chile, Lovaina,  Sorbona, Varsovia, Bonn, Roma, Argel, Columbia, Rue Gay Lussac, Barrio Latino, Rue Drouet,   Brasil, Chile, Renault-Cleon, Saint Flotrentin, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvador Allende, Fidel Castro, Ernesto "Che" Guevara, charles de Gaulle, Giangiacomo Feltrinelli, Qing Jiang, V.I. Lenin, André Malraux, Zedong Mao, Richard Nixon, augusto Pinochet, Georges Pompidou, Joseph Stalin, Nguyen Giap Vo, Enlai Zhou, Paul Vergès, Simone Signoret, Paul Cèbe, Lenin, Geroges Frischmann, Lescure, Shah de Irán, Shirazi, Faterni, Lofti, Scherberwen, Rudi Dutschke, Regis Debray, Panteras Negras, Mao Zedong, Giscard D'Estaing, Douglas Bravo, Leoni, Mario Monje, Paul Seban, Wallander, Major Shleton, Albina du Boisrouvray, Leon Nicod, Phillippe de Joinet, Alain Peyreffite, Laura Allende, Luis Edson, Charles de Gaulle, rector Capelle, Alain Gesmar, M. Fanton, Cohn-Bendit, Geroges Séguy, M. Wolgensinger, </t>
+  </si>
+  <si>
+    <t>Un pequeño pueblo despoblado del Aude. Una pareja de ancianos confía a la cámara del veraneante los recuerdos de otro tiempo: la guerra, la enfermedad, la muerte... El cineasta construye el film a partir de una serie de imágenes autónomas, que, reunidas, componen su universo mental: la felicidad familiar, fragmentos de algunos films anteriores, dos poemas de los poetas holandeses Remco Campert y Lucebert, el retrato del abuelo del cineasta de quien aprendió a fotografiar... </t>
+  </si>
+  <si>
+    <t>Johan Van Der Keuken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICA, TALLER CHURUBUSCO, COMISION DE CONTRATOS, FEMSA, INDECO, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tula, Pachuca, Ciudad de México, </t>
+  </si>
+  <si>
+    <t>Basilio Martín Patino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alemania: Berlín. España: Badajoz, Andalucía, Granada, Sevilla, Burgos, Salamanca, Villamuriel, Valencia, </t>
+  </si>
+  <si>
+    <t>Antonio López Sierra, Vicente Copete, Bernardo Sánchez Bascuñana</t>
+  </si>
+  <si>
+    <t>Tzotzil de Chiapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Echeverría, Gustavo Díaz Ordaz, Rubén Jaramillo, Othón Salazar, Valentín Campa, Demetrio Vallejo, Humboldt, </t>
+  </si>
+  <si>
+    <t>Nativo de la tribu</t>
+  </si>
+  <si>
+    <t>Clásico documental etnográfico, realizado por el renombrado director David and Judith MacDougall, explorando la vida nomada de la tribu Jie en Uganda.
+Filmada en un campamento de ganado Jie cerca del límite de Acholi, en el distrito de Karamoja en el noreste de Uganda. El Jie, un pueblo perdominantemente pastoril, dejan sus hogares en la estación seca y el rebaño a su ganado a los campos de temporada, o nawi. Documentoando los preparativos para el ganado y muestra la vida en el campamento, donde los hombres hablan y hacen los objetos de cuero y los niños juegan. (Fuente: OCLC WorldCat: http://www.worldcat.org/title/nawi/oclc/317009926)</t>
+  </si>
+  <si>
+    <t>James Kennedy</t>
+  </si>
+  <si>
+    <t>22'</t>
+  </si>
+  <si>
+    <t>Secuencua de 16 minutos rodada en un campamento de verano de la etnia Jie del Noreste de Uganda, refleja una mirada participativa del evento que registra. Así, asistimos como uno más a una discusión sobre la velodicad de los coches en un momento de descanso de los hombres que cuidan del ganado. La cámara resgutra primero planos y se mueve atendiendo la conversación. El efecto de representación es de proximidad y complicada del espectador, que aunque desconozca las estructuras de cultura de esta etnia y el documental no le aporte información conceptual sobre la misma, es capaz de compartir conjuntamente esta experiencia.</t>
+  </si>
+  <si>
+    <t>https://books.google.com.mx/books?id=U7qWBxo00pcC&amp;pg=PA112&amp;lpg=PA112&amp;dq=documental+de+uganda+macdougall&amp;source=bl&amp;ots=cVXeHG6A1O&amp;sig=aMTifmkJ-hEKx_SonMN0ur5ZQ7g&amp;hl=es&amp;sa=X&amp;ei=OGxKVZvAKI_boASlz4GADg&amp;ved=0CEoQ6AEwBw#v=onepage&amp;q=documental%20de%20uganda%20macdougall&amp;f=false</t>
+  </si>
+  <si>
+    <t>La region no corresponde no se puede reproducir</t>
+  </si>
+  <si>
+    <t>Gregorio Hebrero</t>
+  </si>
+  <si>
+    <t>Berbardo Mens</t>
+  </si>
+  <si>
+    <t>Sincronia</t>
+  </si>
+  <si>
+    <t>Astorga y Madrid</t>
+  </si>
+  <si>
+    <t>27 de agosto de 1972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felicidad Blanc, Leopoldo María Panero, Michi Panero, Juan Luis Panero, Marino Amaya, Azorín, Baroja, Luis Rosales, </t>
+  </si>
+  <si>
+    <t>Estados Unidos, Canadá</t>
+  </si>
+  <si>
+    <t>México, Francia</t>
+  </si>
+  <si>
+    <t>Paises bajos, Francia</t>
+  </si>
+  <si>
+    <t>Australia, USA</t>
+  </si>
+  <si>
+    <t>69'</t>
+  </si>
+  <si>
+    <t>27'51''</t>
+  </si>
+  <si>
+    <t>16'</t>
+  </si>
+  <si>
+    <t>49'</t>
+  </si>
+  <si>
+    <t>21'17''</t>
+  </si>
+  <si>
+    <t>74'</t>
+  </si>
+  <si>
+    <t>37'45''</t>
+  </si>
+  <si>
+    <t>32'</t>
+  </si>
+  <si>
+    <t>96'</t>
+  </si>
+  <si>
+    <t>103'</t>
+  </si>
+  <si>
+    <t>30'</t>
+  </si>
+  <si>
+    <t>9'</t>
+  </si>
+  <si>
+    <t>1'54''</t>
+  </si>
+  <si>
+    <t>1'21''</t>
+  </si>
+  <si>
+    <t>29'46''</t>
+  </si>
+  <si>
+    <t>28'</t>
+  </si>
+  <si>
+    <t>14'36''</t>
+  </si>
+  <si>
+    <t>David MacDougall,  Judith MacDougall, Churchill Films.</t>
+  </si>
+  <si>
+    <t>Franz Simon, Ernesto Veiga de Oliveira, Benjamín E. Pereira</t>
+  </si>
+  <si>
+    <t>Timothy Asch, Napoleon Chagnon</t>
+  </si>
+  <si>
+    <t>Abel Hurtado, José Luis Mariño, Jaime Tello</t>
+  </si>
+  <si>
+    <t>Teo Escamilla, Juan Ruiz Anchía</t>
+  </si>
+  <si>
+    <t>Oscar Menéndez, Enrique Borde Mangel, Héctor García</t>
+  </si>
+  <si>
+    <t>Paul Bugos, Marilyn Luke</t>
+  </si>
+  <si>
+    <t>Asistentes: Simon Hinkly, Nick Hutchings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Marker, ICAIC, Jhon D. and Catherine T. Mac Arthur,  Jorge Pcheux, Delia Quesada, Eusebio Ortiz, Alberto Valdes, Ricardo Lopez, </t>
+  </si>
+  <si>
+    <t>Insituto Nacional Indigenista, Gobierno del Estado de Guanajuato, Secretaría de Recursos Hidráulicos, Secretaría de salubridad y asistencia pública, Banco Nacional de Crédito Agrícola, CONASUPO, CAPFCE, Instituto Nacional de la Vivienda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agosto 1976,  6 de mayo de 1902, 1901, 1956 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movimientos estudiantiles de la década de los 60's, 1 de mayo de 1967, 2 de junio de 1967, 13 de marzo de 1967, 2 de mayo de 1968, 11 de abril de 1968, 1 de mayo de 1968, 10 de mayo de 1968, marzo de 1968, 14 de mayo de 1968 </t>
+  </si>
+  <si>
+    <t>1957, 1962, 1968, 1969, 1979, 1971, 2 de octubre de 1968</t>
+  </si>
+  <si>
+    <t>Italiano</t>
+  </si>
+  <si>
+    <t>VHS, DVD</t>
+  </si>
+  <si>
+    <t>1 vhs, 1 dvd</t>
+  </si>
+  <si>
+    <t>Color, Blanco y negro, blanco , negro virado a rojo, amarillo, verde y azul</t>
+  </si>
+  <si>
+    <t>Blanco y negro</t>
+  </si>
+  <si>
+    <t>Dialectos de Yanomamo en Brasil, Inglés</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -2658,8 +2695,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2702,14 +2745,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2816,11 +2853,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2908,10 +2959,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2924,15 +2971,20 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2969,16 +3021,31 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3313,10 +3380,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="G1" zoomScale="75" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3350,13 +3417,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="A1" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -3381,35 +3448,35 @@
     </row>
     <row r="2" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
-      <c r="B2" s="59" t="s">
-        <v>265</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
+      <c r="B2" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="62" t="s">
-        <v>266</v>
-      </c>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="T2" s="64"/>
-      <c r="U2" s="62" t="s">
-        <v>272</v>
-      </c>
-      <c r="V2" s="64"/>
+      <c r="J2" s="65" t="s">
+        <v>242</v>
+      </c>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="65" t="s">
+        <v>243</v>
+      </c>
+      <c r="T2" s="67"/>
+      <c r="U2" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="V2" s="67"/>
       <c r="W2" s="12"/>
       <c r="X2" s="12"/>
       <c r="Y2" s="13"/>
@@ -3417,126 +3484,126 @@
     </row>
     <row r="3" spans="1:26" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="X3" s="15" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="Y3" s="15" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="Z3" s="15" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="17" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="H4" s="17">
         <v>1973</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>607</v>
+        <v>552</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>603</v>
+        <v>548</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="17" t="s">
-        <v>595</v>
+        <v>541</v>
       </c>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="17" t="s">
-        <v>596</v>
+        <v>542</v>
       </c>
       <c r="S4" s="16"/>
       <c r="T4" s="17" t="s">
-        <v>597</v>
+        <v>543</v>
       </c>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
@@ -3544,108 +3611,108 @@
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
       <c r="Z4" s="17" t="s">
-        <v>598</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="17" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="H5" s="17">
         <v>1974</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="17" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
       <c r="P5" s="17" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="Q5" s="17"/>
       <c r="R5" s="17" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
       <c r="V5" s="17" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="W5" s="17"/>
       <c r="X5" s="17"/>
       <c r="Y5" s="17"/>
       <c r="Z5" s="17" t="s">
-        <v>337</v>
+        <v>640</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="17" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="H6" s="17">
         <v>1970</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>379</v>
+        <v>616</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="17" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="17" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="17" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="Q6" s="16"/>
       <c r="R6" s="17" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="T6" s="16"/>
       <c r="U6" s="17" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="V6" s="16"/>
       <c r="W6" s="17" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
@@ -3653,27 +3720,27 @@
     </row>
     <row r="7" spans="1:26" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="17" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
       <c r="H7" s="17">
         <v>1979</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>463</v>
+        <v>617</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="17" t="s">
-        <v>464</v>
+        <v>423</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
@@ -3693,17 +3760,17 @@
     </row>
     <row r="8" spans="1:26" ht="66.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="17" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="H8" s="17">
         <v>1971</v>
@@ -3713,26 +3780,26 @@
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="17" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="17" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="17" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>619</v>
+        <v>564</v>
       </c>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="17" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
@@ -3741,38 +3808,38 @@
     </row>
     <row r="9" spans="1:26" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="17" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="H9" s="17">
         <v>1973</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>191</v>
+        <v>618</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="17" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="17" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="17" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
@@ -3781,201 +3848,215 @@
       <c r="W9" s="16"/>
       <c r="X9" s="16"/>
       <c r="Y9" s="17" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" s="72" customFormat="1" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
-        <v>242</v>
-      </c>
-      <c r="B10" s="70" t="s">
-        <v>294</v>
-      </c>
-      <c r="C10" s="70" t="s">
+    <row r="10" spans="1:26" s="58" customFormat="1" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="57"/>
+      <c r="G10" s="54" t="s">
+        <v>613</v>
+      </c>
+      <c r="H10" s="54">
+        <v>1971</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>619</v>
+      </c>
+      <c r="J10" s="57"/>
+      <c r="K10" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="L10" s="57"/>
+      <c r="M10" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q10" s="54" t="s">
+        <v>638</v>
+      </c>
+      <c r="R10" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="V10" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="W10" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+    </row>
+    <row r="11" spans="1:26" s="56" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>421</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="70" t="s">
+      <c r="F11" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="43">
+        <v>1975</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>575</v>
+      </c>
+      <c r="J11" s="54" t="s">
+        <v>571</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>572</v>
+      </c>
+      <c r="M11" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="S11" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="T11" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="43" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="56" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="G12" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="H10" s="70">
-        <v>1971</v>
-      </c>
-      <c r="I10" s="70" t="s">
-        <v>181</v>
-      </c>
-      <c r="J10" s="71"/>
-      <c r="K10" s="70" t="s">
+      <c r="H12" s="43">
+        <v>1977</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>587</v>
+      </c>
+      <c r="J12" s="54" t="s">
+        <v>571</v>
+      </c>
+      <c r="K12" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="L10" s="71"/>
-      <c r="M10" s="70" t="s">
+      <c r="L12" s="43" t="s">
+        <v>572</v>
+      </c>
+      <c r="M12" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="70" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="70" t="s">
-        <v>184</v>
-      </c>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="70" t="s">
-        <v>185</v>
-      </c>
-      <c r="V10" s="71"/>
-      <c r="W10" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
-    </row>
-    <row r="11" spans="1:26" s="72" customFormat="1" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="B11" s="70" t="s">
-        <v>461</v>
-      </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="F11" s="70" t="s">
-        <v>422</v>
-      </c>
-      <c r="G11" s="70" t="s">
-        <v>204</v>
-      </c>
-      <c r="H11" s="70">
-        <v>1975</v>
-      </c>
-      <c r="I11" s="70" t="s">
-        <v>117</v>
-      </c>
-      <c r="J11" s="71"/>
-      <c r="K11" s="70" t="s">
-        <v>205</v>
-      </c>
-      <c r="L11" s="71"/>
-      <c r="M11" s="70" t="s">
-        <v>205</v>
-      </c>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="70" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="70" t="s">
-        <v>137</v>
-      </c>
-      <c r="S11" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="T11" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="70" t="s">
+      <c r="Q12" s="55"/>
+      <c r="R12" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="S12" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="T12" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="X11" s="71"/>
-      <c r="Y11" s="71"/>
-      <c r="Z11" s="71"/>
-    </row>
-    <row r="12" spans="1:26" s="72" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="70" t="s">
-        <v>282</v>
-      </c>
-      <c r="B12" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="F12" s="70" t="s">
-        <v>460</v>
-      </c>
-      <c r="G12" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="H12" s="70">
-        <v>1977</v>
-      </c>
-      <c r="I12" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="J12" s="71"/>
-      <c r="K12" s="70" t="s">
-        <v>205</v>
-      </c>
-      <c r="L12" s="71"/>
-      <c r="M12" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="70" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="70" t="s">
-        <v>137</v>
-      </c>
-      <c r="S12" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="T12" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
-      <c r="W12" s="70" t="s">
-        <v>156</v>
-      </c>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="71"/>
-      <c r="Z12" s="71"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
     </row>
     <row r="13" spans="1:26" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="17" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="H13" s="17">
         <v>1973</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>165</v>
+        <v>620</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="17" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
@@ -3995,31 +4076,31 @@
     </row>
     <row r="14" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="H14" s="17">
         <v>1973</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>152</v>
+        <v>584</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="17" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
@@ -4039,43 +4120,43 @@
     </row>
     <row r="15" spans="1:26" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="17" t="s">
-        <v>481</v>
+        <v>438</v>
       </c>
       <c r="H15" s="17">
         <v>1977</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>482</v>
+        <v>621</v>
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="17" t="s">
-        <v>483</v>
+        <v>439</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="17" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="17" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="Q15" s="16"/>
       <c r="R15" s="17" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
@@ -4087,47 +4168,51 @@
     </row>
     <row r="16" spans="1:26" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>508</v>
+        <v>463</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="17" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="H16" s="17">
         <v>1977</v>
       </c>
-      <c r="I16" s="17"/>
+      <c r="I16" s="17" t="s">
+        <v>587</v>
+      </c>
       <c r="J16" s="16"/>
       <c r="K16" s="17" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="17" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="P16" s="17" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="Q16" s="16"/>
       <c r="R16" s="17" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="S16" s="16"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
+      <c r="U16" s="17" t="s">
+        <v>586</v>
+      </c>
       <c r="V16" s="16"/>
       <c r="W16" s="17" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
@@ -4135,42 +4220,42 @@
     </row>
     <row r="17" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>509</v>
+        <v>464</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="17" t="s">
-        <v>416</v>
+        <v>614</v>
       </c>
       <c r="H17" s="17">
         <v>1974</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>417</v>
+        <v>622</v>
       </c>
       <c r="J17" s="16"/>
       <c r="K17" s="17" t="s">
-        <v>479</v>
+        <v>591</v>
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
       <c r="P17" s="17" t="s">
-        <v>479</v>
+        <v>436</v>
       </c>
       <c r="Q17" s="16"/>
       <c r="R17" s="17" t="s">
-        <v>479</v>
+        <v>436</v>
       </c>
       <c r="S17" s="16"/>
       <c r="T17" s="17" t="s">
-        <v>480</v>
+        <v>437</v>
       </c>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
@@ -4181,27 +4266,27 @@
     </row>
     <row r="18" spans="1:26" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>510</v>
+        <v>465</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="17" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="H18" s="17">
         <v>1974</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="J18" s="17"/>
       <c r="K18" s="17" t="s">
-        <v>235</v>
+        <v>636</v>
       </c>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
@@ -4210,7 +4295,7 @@
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="17" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
@@ -4223,36 +4308,36 @@
     </row>
     <row r="19" spans="1:26" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="17" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H19" s="17">
         <v>1972</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>113</v>
+        <v>623</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="17" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="P19" s="17" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
@@ -4261,7 +4346,7 @@
       <c r="U19" s="16"/>
       <c r="V19" s="16"/>
       <c r="W19" s="17" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="X19" s="16"/>
       <c r="Y19" s="16"/>
@@ -4269,27 +4354,27 @@
     </row>
     <row r="20" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="17" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="H20" s="17">
         <v>1970</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="J20" s="17"/>
       <c r="K20" s="17" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
@@ -4299,7 +4384,7 @@
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
       <c r="S20" s="17" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="T20" s="17"/>
       <c r="U20" s="17"/>
@@ -4308,52 +4393,52 @@
       <c r="X20" s="17"/>
       <c r="Y20" s="17"/>
       <c r="Z20" s="17" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="17" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H21" s="17">
         <v>1970</v>
       </c>
-      <c r="I21" s="17">
-        <v>96</v>
+      <c r="I21" s="17" t="s">
+        <v>624</v>
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
       <c r="P21" s="17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q21" s="16"/>
       <c r="R21" s="17" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="T21" s="16"/>
       <c r="U21" s="16"/>
@@ -4365,48 +4450,48 @@
     </row>
     <row r="22" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="17" t="s">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="H22" s="17">
         <v>1977</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>470</v>
+        <v>625</v>
       </c>
       <c r="J22" s="16"/>
       <c r="K22" s="17" t="s">
-        <v>471</v>
+        <v>594</v>
       </c>
       <c r="L22" s="16"/>
       <c r="M22" s="17" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
       <c r="P22" s="17" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="Q22" s="17"/>
       <c r="R22" s="17" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>473</v>
+        <v>431</v>
       </c>
       <c r="T22" s="16"/>
       <c r="U22" s="16"/>
       <c r="V22" s="17" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="W22" s="16"/>
       <c r="X22" s="16"/>
@@ -4415,40 +4500,40 @@
     </row>
     <row r="23" spans="1:26" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="17" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="H23" s="17">
         <v>1975</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>365</v>
+        <v>626</v>
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="17" t="s">
-        <v>352</v>
+        <v>635</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
       <c r="O23" s="17"/>
       <c r="P23" s="17" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="Q23" s="17"/>
       <c r="R23" s="17" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
@@ -4457,55 +4542,55 @@
       <c r="W23" s="17"/>
       <c r="X23" s="17"/>
       <c r="Y23" s="17" t="s">
-        <v>356</v>
+        <v>639</v>
       </c>
       <c r="Z23" s="16"/>
     </row>
     <row r="24" spans="1:26" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>511</v>
+        <v>466</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="17" t="s">
-        <v>514</v>
+        <v>469</v>
       </c>
       <c r="H24" s="17">
         <v>1972</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>99</v>
+        <v>624</v>
       </c>
       <c r="J24" s="17"/>
       <c r="K24" s="17" t="s">
-        <v>520</v>
+        <v>475</v>
       </c>
       <c r="L24" s="17"/>
       <c r="M24" s="17" t="s">
-        <v>516</v>
+        <v>471</v>
       </c>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
       <c r="R24" s="17" t="s">
-        <v>518</v>
+        <v>473</v>
       </c>
       <c r="S24" s="17"/>
       <c r="T24" s="17" t="s">
-        <v>522</v>
+        <v>477</v>
       </c>
       <c r="U24" s="17"/>
       <c r="V24" s="17" t="s">
-        <v>517</v>
+        <v>472</v>
       </c>
       <c r="W24" s="17" t="s">
-        <v>519</v>
+        <v>474</v>
       </c>
       <c r="X24" s="17"/>
       <c r="Y24" s="17"/>
@@ -4513,33 +4598,33 @@
     </row>
     <row r="25" spans="1:26" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="17" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="17" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
       <c r="H25" s="17">
         <v>1971</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>372</v>
+        <v>627</v>
       </c>
       <c r="J25" s="16"/>
       <c r="K25" s="17" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="17" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
@@ -4547,10 +4632,10 @@
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
       <c r="S25" s="17" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="U25" s="16"/>
       <c r="V25" s="16"/>
@@ -4558,15 +4643,15 @@
       <c r="X25" s="16"/>
       <c r="Y25" s="16"/>
       <c r="Z25" s="17" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -4577,11 +4662,11 @@
         <v>1970</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>3</v>
+        <v>628</v>
       </c>
       <c r="J26" s="16"/>
       <c r="K26" s="17" t="s">
-        <v>4</v>
+        <v>634</v>
       </c>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
@@ -4601,10 +4686,10 @@
     </row>
     <row r="27" spans="1:26" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -4615,11 +4700,11 @@
         <v>1976</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>5</v>
+        <v>629</v>
       </c>
       <c r="J27" s="16"/>
       <c r="K27" s="17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
@@ -4639,40 +4724,40 @@
     </row>
     <row r="28" spans="1:26" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>488</v>
+        <v>444</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="17" t="s">
-        <v>490</v>
+        <v>446</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>491</v>
+        <v>447</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>492</v>
+        <v>448</v>
       </c>
       <c r="H28" s="17">
         <v>1977</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>493</v>
+        <v>630</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="17" t="s">
-        <v>494</v>
+        <v>449</v>
       </c>
       <c r="L28" s="16"/>
       <c r="M28" s="17" t="s">
-        <v>494</v>
+        <v>449</v>
       </c>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
       <c r="P28" s="17" t="s">
-        <v>495</v>
+        <v>450</v>
       </c>
       <c r="Q28" s="16"/>
       <c r="R28" s="17"/>
@@ -4681,7 +4766,7 @@
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
       <c r="W28" s="17" t="s">
-        <v>494</v>
+        <v>449</v>
       </c>
       <c r="X28" s="16"/>
       <c r="Y28" s="16"/>
@@ -4689,29 +4774,29 @@
     </row>
     <row r="29" spans="1:26" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H29" s="17">
         <v>1970</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>35</v>
+        <v>627</v>
       </c>
       <c r="J29" s="16"/>
       <c r="K29" s="17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
@@ -4731,34 +4816,34 @@
     </row>
     <row r="30" spans="1:26" ht="51.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H30" s="17">
         <v>1972</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>40</v>
+        <v>631</v>
       </c>
       <c r="J30" s="16"/>
       <c r="K30" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="L30" s="53"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="16"/>
+        <v>33</v>
+      </c>
+      <c r="L30" s="51"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="73"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
@@ -4773,116 +4858,171 @@
     </row>
     <row r="31" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>560</v>
-      </c>
-      <c r="B31" s="47" t="s">
-        <v>561</v>
+        <v>513</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>514</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>584</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
       <c r="G31" s="47" t="s">
-        <v>580</v>
+        <v>615</v>
       </c>
       <c r="H31" s="47">
         <v>1970</v>
       </c>
       <c r="I31" s="47" t="s">
-        <v>350</v>
+        <v>602</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>586</v>
+        <v>633</v>
       </c>
       <c r="L31" s="17" t="s">
-        <v>575</v>
-      </c>
-      <c r="N31" s="53"/>
+        <v>525</v>
+      </c>
+      <c r="M31" s="16"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="16"/>
       <c r="P31" s="17" t="s">
-        <v>575</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="R31" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="S31" s="16"/>
+      <c r="T31" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
     </row>
     <row r="32" spans="1:26" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="B32" s="47" t="s">
-        <v>572</v>
-      </c>
-      <c r="G32" s="51" t="s">
-        <v>580</v>
+        <v>516</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="C32" s="17">
+        <v>1970</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="49" t="s">
+        <v>615</v>
       </c>
       <c r="H32" s="47">
         <v>1973</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>577</v>
+        <v>632</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="M32" s="17"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
       <c r="P32" s="17" t="s">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q32" s="17"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
       <c r="T32" s="17" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+    </row>
+    <row r="33" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>587</v>
-      </c>
-      <c r="B33" s="47" t="s">
-        <v>564</v>
-      </c>
-      <c r="G33" s="51" t="s">
-        <v>566</v>
+        <v>533</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="49" t="s">
+        <v>519</v>
       </c>
       <c r="H33" s="47">
         <v>1976</v>
       </c>
-      <c r="I33" s="47">
-        <v>96</v>
+      <c r="I33" s="47" t="s">
+        <v>624</v>
+      </c>
+      <c r="K33" s="47" t="s">
+        <v>606</v>
       </c>
       <c r="L33" s="17" t="s">
-        <v>567</v>
+        <v>520</v>
       </c>
       <c r="M33" s="17" t="s">
-        <v>567</v>
-      </c>
-      <c r="N33" s="54"/>
+        <v>520</v>
+      </c>
+      <c r="N33" s="75"/>
+      <c r="O33" s="16"/>
       <c r="P33" s="17" t="s">
-        <v>570</v>
-      </c>
-      <c r="V33" s="53"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="N34" s="53"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="N35" s="54"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="N36" s="53"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="N37" s="54"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="N38" s="53"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="N39" s="54"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="N40" s="53"/>
+        <v>637</v>
+      </c>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="76" t="s">
+        <v>607</v>
+      </c>
+      <c r="T33" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="N34" s="51"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="N35" s="52"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="N36" s="51"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="N37" s="52"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="N38" s="51"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="N39" s="52"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="N40" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4912,8 +5052,8 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="71" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4930,13 +5070,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="A1" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
@@ -4945,11 +5085,11 @@
     <row r="2" spans="1:9" ht="42.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
-      <c r="C2" s="59" t="s">
-        <v>312</v>
-      </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
+      <c r="C2" s="62" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
       <c r="F2" s="20"/>
       <c r="G2" s="22"/>
       <c r="H2" s="23"/>
@@ -4957,70 +5097,70 @@
     </row>
     <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="311.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>602</v>
+        <v>547</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="57" t="s">
-        <v>600</v>
+      <c r="G4" s="53" t="s">
+        <v>546</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="I5" s="17">
         <v>1999</v>
@@ -5028,17 +5168,17 @@
     </row>
     <row r="6" spans="1:9" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="17" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -5047,17 +5187,17 @@
     </row>
     <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>615</v>
+        <v>560</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="17" t="s">
-        <v>497</v>
+        <v>452</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -5066,15 +5206,15 @@
     </row>
     <row r="8" spans="1:9" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="17" t="s">
-        <v>616</v>
+        <v>561</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -5083,76 +5223,78 @@
     </row>
     <row r="9" spans="1:9" ht="116.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="17" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="1:9" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="1:9" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="56" customFormat="1" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+    </row>
+    <row r="11" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="17" t="s">
-        <v>205</v>
+        <v>570</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="G11" s="17" t="s">
+        <v>573</v>
+      </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="17" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -5161,10 +5303,10 @@
     </row>
     <row r="13" spans="1:9" ht="98.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -5176,55 +5318,55 @@
     </row>
     <row r="14" spans="1:9" ht="90.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="17" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
     </row>
-    <row r="15" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+    <row r="15" spans="1:9" s="56" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="D15" s="55"/>
+      <c r="E15" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
     </row>
     <row r="16" spans="1:9" ht="89.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>508</v>
+        <v>463</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="17" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -5233,15 +5375,15 @@
     </row>
     <row r="17" spans="1:9" ht="86.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>509</v>
+        <v>464</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="17" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -5250,18 +5392,18 @@
     </row>
     <row r="18" spans="1:9" ht="246" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>510</v>
+        <v>465</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="38" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -5269,17 +5411,17 @@
     </row>
     <row r="19" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="17" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -5288,20 +5430,20 @@
     </row>
     <row r="20" spans="1:9" ht="327.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>306</v>
+        <v>642</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="17" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
@@ -5309,17 +5451,17 @@
     </row>
     <row r="21" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="17" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -5328,19 +5470,19 @@
     </row>
     <row r="22" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>474</v>
+        <v>432</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>431</v>
+        <v>392</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>476</v>
+        <v>434</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="16"/>
@@ -5349,22 +5491,22 @@
     </row>
     <row r="23" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
       <c r="F23" s="38"/>
       <c r="G23" s="39" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="I23" s="17">
         <v>2000</v>
@@ -5372,13 +5514,13 @@
     </row>
     <row r="24" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>515</v>
+        <v>470</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -5389,10 +5531,10 @@
     </row>
     <row r="25" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>512</v>
+        <v>467</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -5404,10 +5546,10 @@
     </row>
     <row r="26" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -5419,10 +5561,10 @@
     </row>
     <row r="27" spans="1:9" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -5434,22 +5576,22 @@
     </row>
     <row r="28" spans="1:9" ht="173.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>488</v>
+        <v>444</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>546</v>
+        <v>499</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="17" t="s">
-        <v>502</v>
+        <v>457</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>503</v>
+        <v>458</v>
       </c>
       <c r="I28" s="40">
         <v>39877</v>
@@ -5457,10 +5599,10 @@
     </row>
     <row r="29" spans="1:9" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -5472,20 +5614,20 @@
     </row>
     <row r="30" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="17" t="s">
-        <v>588</v>
+        <v>534</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>582</v>
+        <v>530</v>
       </c>
       <c r="I30" s="17">
         <v>1999</v>
@@ -5493,20 +5635,22 @@
     </row>
     <row r="31" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>560</v>
-      </c>
-      <c r="B31" s="47" t="s">
-        <v>561</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>575</v>
-      </c>
-      <c r="E31" s="17"/>
+        <v>513</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>514</v>
+      </c>
+      <c r="C31" s="77" t="s">
+        <v>525</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
       <c r="G31" s="17" t="s">
-        <v>588</v>
+        <v>534</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>582</v>
+        <v>530</v>
       </c>
       <c r="I31" s="17">
         <v>1999</v>
@@ -5514,28 +5658,38 @@
     </row>
     <row r="32" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="B32" s="47" t="s">
-        <v>572</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>523</v>
+      </c>
+      <c r="C32" s="77" t="s">
+        <v>525</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>587</v>
-      </c>
-      <c r="B33" s="47" t="s">
-        <v>564</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>568</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>589</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="76" t="s">
+        <v>521</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="76" t="s">
+        <v>535</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5560,9 +5714,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="58" zoomScalePageLayoutView="58" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="58" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5582,13 +5736,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="65"/>
+      <c r="A1" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="25"/>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -5601,73 +5755,73 @@
       <c r="A2" s="28"/>
       <c r="B2" s="10"/>
       <c r="C2" s="29"/>
-      <c r="D2" s="59" t="s">
-        <v>264</v>
-      </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="59" t="s">
-        <v>260</v>
-      </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
+      <c r="D2" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="64"/>
     </row>
     <row r="3" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="252" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>608</v>
+        <v>553</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>599</v>
+        <v>545</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>604</v>
+        <v>549</v>
       </c>
       <c r="F4" s="17">
         <v>1914</v>
@@ -5676,658 +5830,672 @@
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="J4" s="17" t="s">
-        <v>606</v>
+        <v>551</v>
       </c>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12" ht="113.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="17" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="17" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="16"/>
       <c r="L5" s="17" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="125.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>609</v>
+        <v>554</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>610</v>
+        <v>555</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="17" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" ht="225.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>613</v>
+        <v>558</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
-        <v>612</v>
+        <v>557</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17" t="s">
-        <v>496</v>
+        <v>451</v>
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" ht="123.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>617</v>
+        <v>562</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>621</v>
+        <v>566</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>620</v>
+        <v>565</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>467</v>
+        <v>426</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="17" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>622</v>
+        <v>567</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="17" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="72" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
-        <v>242</v>
-      </c>
-      <c r="B10" s="70" t="s">
-        <v>294</v>
-      </c>
-      <c r="C10" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" s="70" t="s">
-        <v>197</v>
-      </c>
-      <c r="F10" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="G10" s="70" t="s">
-        <v>344</v>
-      </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="70" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="58" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>598</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="H10" s="57"/>
+      <c r="I10" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10" s="57"/>
+      <c r="L10" s="54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="58" customFormat="1" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>574</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>579</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>576</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>577</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="I11" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="J11" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" s="57"/>
+      <c r="L11" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="K10" s="71"/>
-      <c r="L10" s="70" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="72" customFormat="1" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="B11" s="70" t="s">
-        <v>300</v>
-      </c>
-      <c r="C11" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="70">
+    </row>
+    <row r="12" spans="1:12" s="58" customFormat="1" ht="137.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>582</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>581</v>
+      </c>
+      <c r="F12" s="54">
         <v>1973</v>
       </c>
-      <c r="G11" s="70" t="s">
-        <v>344</v>
-      </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="J11" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="K11" s="71"/>
-      <c r="L11" s="70" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="72" customFormat="1" ht="137.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="70" t="s">
-        <v>282</v>
-      </c>
-      <c r="B12" s="70" t="s">
-        <v>301</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="F12" s="70">
-        <v>1973</v>
-      </c>
-      <c r="G12" s="70" t="s">
-        <v>344</v>
-      </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="J12" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="K12" s="71"/>
-      <c r="L12" s="70" t="s">
-        <v>119</v>
+      <c r="G12" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="H12" s="57"/>
+      <c r="I12" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" s="57"/>
+      <c r="L12" s="54" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="134.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="C13" s="73" t="s">
-        <v>624</v>
+        <v>278</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>568</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>625</v>
+        <v>569</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>475</v>
+        <v>433</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>623</v>
+        <v>578</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="K13" s="16"/>
       <c r="L13" s="17" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="16"/>
+        <v>185</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>583</v>
+      </c>
       <c r="D14" s="17" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F14" s="17">
         <v>1973</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="17" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="132.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17" t="s">
-        <v>486</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>485</v>
-      </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="56" customFormat="1" ht="132.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="H15" s="55"/>
+      <c r="I15" s="43" t="s">
+        <v>442</v>
+      </c>
+      <c r="J15" s="43" t="s">
+        <v>441</v>
+      </c>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
     </row>
     <row r="16" spans="1:12" ht="179.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>508</v>
+        <v>463</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="C16" s="16"/>
+        <v>203</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>585</v>
+      </c>
       <c r="D16" s="17" t="s">
-        <v>402</v>
+        <v>589</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="F16" s="16"/>
+        <v>588</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>644</v>
+      </c>
       <c r="G16" s="17" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="17" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:13" ht="126.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>509</v>
+        <v>464</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>415</v>
+        <v>590</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="F17" s="16"/>
+        <v>355</v>
+      </c>
+      <c r="F17" s="17">
+        <v>1974</v>
+      </c>
       <c r="G17" s="17" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="17" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="17" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="132" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>510</v>
+        <v>465</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+        <v>84</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>592</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="F18" s="17">
+        <v>1974</v>
+      </c>
       <c r="G18" s="17" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="17" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="K18" s="16"/>
       <c r="L18" s="17" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="56" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="43">
+        <v>1930</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="H19" s="55"/>
+      <c r="I19" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+    </row>
+    <row r="20" spans="1:13" s="56" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="K20" s="55"/>
+      <c r="L20" s="43" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="56" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="17">
-        <v>1930</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-    </row>
-    <row r="20" spans="1:13" ht="202.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="H21" s="55"/>
+      <c r="I21" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>423</v>
+        <v>596</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>477</v>
+        <v>595</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>478</v>
+        <v>435</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="17" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
     </row>
     <row r="23" spans="1:13" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="17" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="17" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="17" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="342" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>504</v>
+        <v>459</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="17" t="s">
-        <v>521</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>512</v>
+        <v>467</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="17" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="17" t="s">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
     </row>
     <row r="26" spans="1:13" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
@@ -6335,25 +6503,25 @@
     </row>
     <row r="27" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="E27" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
@@ -6361,32 +6529,32 @@
     </row>
     <row r="28" spans="1:13" ht="132" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>488</v>
+        <v>444</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>541</v>
+        <v>495</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>542</v>
+        <v>496</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>543</v>
+        <v>497</v>
       </c>
       <c r="F28" s="44" t="s">
-        <v>544</v>
+        <v>643</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>545</v>
+        <v>498</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="17" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
@@ -6394,10 +6562,10 @@
     </row>
     <row r="29" spans="1:13" ht="171" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>0</v>
@@ -6412,10 +6580,10 @@
         <v>2</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
@@ -6423,28 +6591,28 @@
     </row>
     <row r="30" spans="1:13" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="17" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
@@ -6452,42 +6620,46 @@
     </row>
     <row r="31" spans="1:13" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>560</v>
+        <v>513</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>561</v>
+        <v>514</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>585</v>
-      </c>
-      <c r="E31" s="47" t="s">
-        <v>578</v>
+        <v>600</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="43" t="s">
+        <v>527</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>1</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>579</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="I31" s="16"/>
       <c r="J31" s="17" t="s">
-        <v>573</v>
-      </c>
-      <c r="K31" s="17" t="s">
-        <v>581</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="K31" s="77" t="s">
+        <v>529</v>
+      </c>
+      <c r="L31" s="16"/>
     </row>
     <row r="32" spans="1:13" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="B32" s="47" t="s">
-        <v>572</v>
+        <v>516</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>523</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>574</v>
-      </c>
-      <c r="E32" s="55" t="s">
-        <v>578</v>
+        <v>603</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="43" t="s">
+        <v>527</v>
       </c>
       <c r="F32" s="17">
         <v>1968</v>
@@ -6496,37 +6668,48 @@
         <v>1</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>579</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="I32" s="16"/>
       <c r="J32" s="17" t="s">
-        <v>573</v>
-      </c>
-      <c r="K32" s="17" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+      <c r="K32" s="77" t="s">
+        <v>529</v>
+      </c>
+      <c r="L32" s="16"/>
+    </row>
+    <row r="33" spans="1:12" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>587</v>
-      </c>
-      <c r="B33" s="47" t="s">
-        <v>564</v>
+        <v>533</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>517</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>590</v>
+        <v>536</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>569</v>
+        <v>611</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>609</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>610</v>
       </c>
       <c r="G33" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I33" s="47" t="s">
-        <v>591</v>
-      </c>
-      <c r="J33" s="47" t="s">
-        <v>592</v>
-      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="43" t="s">
+        <v>537</v>
+      </c>
+      <c r="J33" s="43" t="s">
+        <v>538</v>
+      </c>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6556,8 +6739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="73" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="D12" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="73" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6579,13 +6762,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="A1" s="69" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
       <c r="F1" s="30"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -6602,351 +6785,353 @@
       <c r="B2" s="33"/>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
-      <c r="E2" s="59" t="s">
-        <v>308</v>
-      </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="59" t="s">
-        <v>309</v>
-      </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
+      <c r="E2" s="62" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="23"/>
       <c r="O2" s="24"/>
     </row>
     <row r="3" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="66.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="17" t="s">
-        <v>605</v>
+        <v>550</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="17" t="s">
-        <v>594</v>
+        <v>540</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>547</v>
+        <v>500</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>548</v>
+        <v>501</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="17" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="17" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="17" t="s">
-        <v>594</v>
+        <v>540</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>547</v>
+        <v>500</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>548</v>
+        <v>501</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="17" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="17" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="E6" s="17" t="s">
+        <v>646</v>
+      </c>
       <c r="F6" s="17" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="17" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>547</v>
+        <v>500</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>548</v>
+        <v>501</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
       <c r="O6" s="17" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="17" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="17" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>547</v>
+        <v>500</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>548</v>
+        <v>501</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>466</v>
+        <v>425</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
       <c r="O7" s="17" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="66.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="17" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>547</v>
+        <v>500</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>548</v>
+        <v>501</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>437</v>
+        <v>649</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="17" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="17" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="17" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>549</v>
+        <v>502</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>550</v>
+        <v>503</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
       <c r="O9" s="17" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="17" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>551</v>
+        <v>504</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>552</v>
+        <v>505</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
       <c r="N10" s="17" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="17" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="17" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>553</v>
+        <v>506</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>554</v>
+        <v>507</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
@@ -6955,103 +7140,103 @@
     </row>
     <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="17" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="17" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>555</v>
+        <v>508</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>556</v>
+        <v>509</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
       <c r="O12" s="17" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>302</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>327</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="17" t="s">
-        <v>487</v>
+        <v>443</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="17" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>557</v>
+        <v>510</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>558</v>
+        <v>511</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
       <c r="O13" s="17" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="66.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="17" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="17" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>559</v>
+        <v>512</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>498</v>
+        <v>453</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
@@ -7060,646 +7245,663 @@
     </row>
     <row r="15" spans="1:15" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="17" t="s">
-        <v>487</v>
+        <v>443</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="17" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="17" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>508</v>
+        <v>463</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="17" t="s">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="17" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>499</v>
+        <v>454</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
       <c r="O16" s="17" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>509</v>
+        <v>464</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="17" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="17" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>523</v>
+        <v>478</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
       <c r="O17" s="17" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="72.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>510</v>
+        <v>465</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="17" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="17" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>524</v>
+        <v>648</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="17" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="N18" s="16"/>
       <c r="O18" s="17" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="17" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="17" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="17" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="17" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="17" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="17" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="N20" s="16"/>
       <c r="O20" s="17" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="17" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="17" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="17" t="s">
-        <v>429</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="17" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17" t="s">
-        <v>427</v>
+        <v>388</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>526</v>
+        <v>480</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>527</v>
+        <v>481</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="L22" s="17"/>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
       <c r="O22" s="17" t="s">
-        <v>429</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="17" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="17" t="s">
-        <v>399</v>
+        <v>651</v>
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="17" t="s">
-        <v>528</v>
+        <v>482</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>529</v>
+        <v>483</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="17" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
     </row>
     <row r="24" spans="1:15" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="17" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="17" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>506</v>
+        <v>461</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>530</v>
+        <v>484</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>534</v>
+        <v>488</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>507</v>
+        <v>462</v>
       </c>
       <c r="L24" s="16"/>
       <c r="M24" s="17" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="N24" s="16"/>
       <c r="O24" s="17" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>512</v>
+        <v>467</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="17" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="16"/>
       <c r="K25" s="17" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="17" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="17" t="s">
-        <v>15</v>
+        <v>647</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M26" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N26" s="16"/>
       <c r="O26" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
       <c r="H27" s="17" t="s">
-        <v>21</v>
+        <v>647</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>23</v>
+        <v>650</v>
       </c>
       <c r="L27" s="17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M27" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N27" s="16"/>
       <c r="O27" s="17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>488</v>
+        <v>444</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="17" t="s">
-        <v>533</v>
+        <v>487</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="17" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>534</v>
+        <v>488</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>537</v>
+        <v>491</v>
       </c>
       <c r="L28" s="17"/>
       <c r="M28" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N28" s="17" t="s">
-        <v>535</v>
+        <v>489</v>
       </c>
       <c r="O28" s="17" t="s">
-        <v>536</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="16"/>
       <c r="K29" s="17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
       <c r="O29" s="17" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>53</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="16"/>
       <c r="K30" s="17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
       <c r="O30" s="17" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>560</v>
-      </c>
-      <c r="B31" s="47" t="s">
-        <v>561</v>
+        <v>513</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>514</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>593</v>
-      </c>
-      <c r="E31" s="47" t="s">
-        <v>347</v>
-      </c>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47" t="s">
-        <v>594</v>
+        <v>539</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="43" t="s">
+        <v>599</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="H31" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>369</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
       <c r="O31" s="17" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="B32" s="47" t="s">
-        <v>572</v>
+        <v>516</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>523</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>593</v>
-      </c>
-      <c r="E32" s="47" t="s">
-        <v>347</v>
-      </c>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47" t="s">
-        <v>594</v>
+        <v>539</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>369</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
       <c r="O32" s="17" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>587</v>
-      </c>
-      <c r="B33" s="47" t="s">
-        <v>564</v>
+        <v>533</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>517</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>593</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="D33" s="16"/>
       <c r="E33" s="17" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F33" s="16"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="47" t="s">
-        <v>594</v>
+      <c r="H33" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>56</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
       <c r="O33" s="17" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -7725,9 +7927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7740,13 +7942,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="A1" s="69" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
@@ -7757,27 +7959,27 @@
     </row>
     <row r="3" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -7785,10 +7987,10 @@
     </row>
     <row r="5" spans="1:5" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -7796,10 +7998,10 @@
     </row>
     <row r="6" spans="1:5" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -7807,10 +8009,10 @@
     </row>
     <row r="7" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -7818,10 +8020,10 @@
     </row>
     <row r="8" spans="1:5" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -7829,10 +8031,10 @@
     </row>
     <row r="9" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -7840,10 +8042,10 @@
     </row>
     <row r="10" spans="1:5" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -7851,36 +8053,36 @@
     </row>
     <row r="11" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -7888,10 +8090,10 @@
     </row>
     <row r="14" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -7899,10 +8101,10 @@
     </row>
     <row r="15" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -7910,10 +8112,10 @@
     </row>
     <row r="16" spans="1:5" ht="78.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>508</v>
+        <v>463</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -7921,10 +8123,10 @@
     </row>
     <row r="17" spans="1:5" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>509</v>
+        <v>464</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -7932,10 +8134,10 @@
     </row>
     <row r="18" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>510</v>
+        <v>465</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -7943,10 +8145,10 @@
     </row>
     <row r="19" spans="1:5" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -7954,10 +8156,10 @@
     </row>
     <row r="20" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -7965,10 +8167,10 @@
     </row>
     <row r="21" spans="1:5" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -7976,10 +8178,10 @@
     </row>
     <row r="22" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -7987,10 +8189,10 @@
     </row>
     <row r="23" spans="1:5" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -7998,10 +8200,10 @@
     </row>
     <row r="24" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -8009,10 +8211,10 @@
     </row>
     <row r="25" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>512</v>
+        <v>467</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -8020,94 +8222,102 @@
     </row>
     <row r="26" spans="1:5" ht="75.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E26" s="16"/>
     </row>
     <row r="27" spans="1:5" ht="81.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>488</v>
+        <v>444</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="17" t="s">
-        <v>538</v>
+        <v>492</v>
       </c>
       <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="17" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="17" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E30" s="16"/>
     </row>
     <row r="31" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>560</v>
-      </c>
-      <c r="B31" s="47" t="s">
-        <v>561</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>514</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="B32" s="47" t="s">
-        <v>572</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>523</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>587</v>
-      </c>
-      <c r="B33" s="47" t="s">
-        <v>564</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>571</v>
+        <v>533</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="76" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -8135,8 +8345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8147,11 +8357,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="69"/>
+      <c r="A1" s="70" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="72"/>
     </row>
     <row r="2" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
@@ -8160,299 +8370,301 @@
     </row>
     <row r="3" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:3" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:3" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>614</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>618</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="C9" s="16"/>
     </row>
-    <row r="10" spans="1:3" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>484</v>
+    <row r="10" spans="1:3" s="56" customFormat="1" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="C11" s="16"/>
+        <v>276</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:3" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:3" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:3" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>508</v>
+        <v>463</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>509</v>
+        <v>464</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>510</v>
+        <v>465</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:3" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="C22" s="16"/>
     </row>
     <row r="23" spans="1:3" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:3" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:3" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>512</v>
+        <v>467</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C27" s="16"/>
     </row>
     <row r="28" spans="1:3" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>488</v>
+        <v>444</v>
       </c>
       <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>560</v>
-      </c>
-      <c r="B31" s="47" t="s">
-        <v>561</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>583</v>
+        <v>513</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>514</v>
+      </c>
+      <c r="C31" s="78" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="B32" s="47" t="s">
-        <v>572</v>
-      </c>
-      <c r="C32" s="56" t="s">
-        <v>583</v>
+        <v>516</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>523</v>
+      </c>
+      <c r="C32" s="78" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>587</v>
-      </c>
-      <c r="B33" s="47" t="s">
-        <v>564</v>
-      </c>
-      <c r="C33" s="50" t="s">
-        <v>565</v>
+        <v>533</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="C33" s="79" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -8462,6 +8674,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1"/>
+    <hyperlink ref="C11" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <rowBreaks count="1" manualBreakCount="1">
@@ -8483,8 +8696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8497,14 +8710,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="69"/>
+      <c r="A1" s="70" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="72"/>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
@@ -8516,65 +8729,65 @@
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="41" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="41" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="17" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="F6" s="40">
         <v>39693</v>
@@ -8582,17 +8795,17 @@
     </row>
     <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="17" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="F7" s="40">
         <v>39696</v>
@@ -8600,17 +8813,17 @@
     </row>
     <row r="8" spans="1:6" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="17" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="F8" s="40">
         <v>39693</v>
@@ -8618,67 +8831,67 @@
     </row>
     <row r="9" spans="1:6" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="17" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="F9" s="40">
         <v>39714</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>394</v>
-      </c>
-      <c r="F10" s="40">
+    <row r="10" spans="1:6" s="56" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="F10" s="80">
         <v>39695</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="41" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="17" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="F12" s="40">
         <v>39714</v>
@@ -8686,17 +8899,17 @@
     </row>
     <row r="13" spans="1:6" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="17" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="F13" s="40">
         <v>39702</v>
@@ -8704,17 +8917,17 @@
     </row>
     <row r="14" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="17" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="F14" s="40">
         <v>39714</v>
@@ -8722,17 +8935,17 @@
     </row>
     <row r="15" spans="1:6" ht="75.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="17" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="F15" s="40">
         <v>39711</v>
@@ -8740,17 +8953,17 @@
     </row>
     <row r="16" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>508</v>
+        <v>463</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="F16" s="40">
         <v>39694</v>
@@ -8758,17 +8971,17 @@
     </row>
     <row r="17" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>509</v>
+        <v>464</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="17" t="s">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="F17" s="40">
         <v>39694</v>
@@ -8776,31 +8989,31 @@
     </row>
     <row r="18" spans="1:6" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>510</v>
+        <v>465</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="41" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="17" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="F19" s="40">
         <v>39714</v>
@@ -8808,31 +9021,31 @@
     </row>
     <row r="20" spans="1:6" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="41" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="17" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="F21" s="40">
         <v>39695</v>
@@ -8840,17 +9053,17 @@
     </row>
     <row r="22" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="17" t="s">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="F22" s="40">
         <v>39694</v>
@@ -8858,31 +9071,31 @@
     </row>
     <row r="23" spans="1:6" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="41" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="17" t="s">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="F24" s="40">
         <v>39969</v>
@@ -8890,31 +9103,31 @@
     </row>
     <row r="25" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>513</v>
+        <v>468</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="41" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="41" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F26" s="42">
         <v>39953</v>
@@ -8922,17 +9135,17 @@
     </row>
     <row r="27" spans="1:6" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="41" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F27" s="42">
         <v>39953</v>
@@ -8940,19 +9153,19 @@
     </row>
     <row r="28" spans="1:6" ht="51.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>488</v>
+        <v>444</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>539</v>
+        <v>493</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>540</v>
+        <v>494</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="F28" s="40">
         <v>39877</v>
@@ -8960,17 +9173,17 @@
     </row>
     <row r="29" spans="1:6" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="F29" s="40">
         <v>39710</v>
@@ -8978,17 +9191,17 @@
     </row>
     <row r="30" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="F30" s="40">
         <v>39710</v>
@@ -8996,52 +9209,58 @@
     </row>
     <row r="31" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>560</v>
+        <v>513</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>561</v>
+        <v>514</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>562</v>
+        <v>515</v>
       </c>
       <c r="E31" s="48" t="s">
-        <v>394</v>
-      </c>
-      <c r="F31" s="49">
+        <v>362</v>
+      </c>
+      <c r="F31" s="40">
         <v>40369</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>560</v>
+        <v>513</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>572</v>
+        <v>523</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>604</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>562</v>
+        <v>515</v>
       </c>
       <c r="E32" s="48" t="s">
-        <v>394</v>
-      </c>
-      <c r="F32" s="49">
+        <v>362</v>
+      </c>
+      <c r="F32" s="40">
         <v>40403</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>563</v>
+        <v>516</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>564</v>
+        <v>517</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>605</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>562</v>
+        <v>515</v>
       </c>
       <c r="E33" s="48" t="s">
-        <v>394</v>
-      </c>
-      <c r="F33" s="49">
+        <v>362</v>
+      </c>
+      <c r="F33" s="40">
         <v>40372</v>
       </c>
     </row>
@@ -9051,6 +9270,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <colBreaks count="3" manualBreakCount="3">
     <brk id="11" max="1048575" man="1"/>
     <brk id="12" max="1048575" man="1"/>

--- a/content/excel/Fichas década9 (1970).xlsx
+++ b/content/excel/Fichas década9 (1970).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="-75" windowWidth="19320" windowHeight="15480" tabRatio="500" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="105" yWindow="-75" windowWidth="19320" windowHeight="15480" tabRatio="500" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ÁREA DE IDENTIFICACIÓN" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="653">
   <si>
     <t>Pelechian plantea un film de enfrentamientos. El de las manifestaciones de la naturaleza, y de cómo el hombre interactúa en ella; el enfrentamiento entre dos tipos de montaje, y el enfrentamiento sonoro. Lo bello y lo feo. La contemplación (lo bello) y la influencia de Pelechian con respecto a la manipulación del tiempo y el sonido (duración de tomas largas y música armónica), sitúa una mirada, en este momento, en estado de gracia. La interacción del hombre en la naturaleza (lo feo), los planos acortados y los sonidos naturales sincrónicos, nos aleja del hábitat deseado en un principio. Una representación del caos a traves de figuras apocalípticas de manadas de animales aterrorizados, pero que en la inercia de la huida encuentran el contrapunto de nubes de pájaros que escapan de la tierra y de los hombres, que la colonizan al ruido de los fusiles.http://www.divxclasico.com/foro/viewtopic.php?t=48100</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2570,6 +2570,9 @@
   </si>
   <si>
     <t>Dialectos de Yanomamo en Brasil, Inglés</t>
+  </si>
+  <si>
+    <t>130'</t>
   </si>
 </sst>
 </file>
@@ -2985,6 +2988,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3019,28 +3044,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3381,9 +3384,9 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="75" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3417,13 +3420,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -3448,35 +3451,35 @@
     </row>
     <row r="2" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="73" t="s">
         <v>242</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="65" t="s">
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="73" t="s">
         <v>243</v>
       </c>
-      <c r="T2" s="67"/>
-      <c r="U2" s="65" t="s">
+      <c r="T2" s="75"/>
+      <c r="U2" s="73" t="s">
         <v>248</v>
       </c>
-      <c r="V2" s="67"/>
+      <c r="V2" s="75"/>
       <c r="W2" s="12"/>
       <c r="X2" s="12"/>
       <c r="Y2" s="13"/>
@@ -3775,8 +3778,8 @@
       <c r="H8" s="17">
         <v>1971</v>
       </c>
-      <c r="I8" s="17">
-        <v>130</v>
+      <c r="I8" s="17" t="s">
+        <v>652</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="17" t="s">
@@ -4841,9 +4844,9 @@
         <v>33</v>
       </c>
       <c r="L30" s="51"/>
-      <c r="M30" s="73"/>
+      <c r="M30" s="61"/>
       <c r="N30" s="50"/>
-      <c r="O30" s="73"/>
+      <c r="O30" s="61"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
@@ -4885,7 +4888,7 @@
         <v>525</v>
       </c>
       <c r="M31" s="16"/>
-      <c r="N31" s="74"/>
+      <c r="N31" s="62"/>
       <c r="O31" s="16"/>
       <c r="P31" s="17" t="s">
         <v>525</v>
@@ -4983,14 +4986,14 @@
       <c r="M33" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="N33" s="75"/>
+      <c r="N33" s="63"/>
       <c r="O33" s="16"/>
       <c r="P33" s="17" t="s">
         <v>637</v>
       </c>
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
-      <c r="S33" s="76" t="s">
+      <c r="S33" s="64" t="s">
         <v>607</v>
       </c>
       <c r="T33" s="17" t="s">
@@ -5070,13 +5073,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
@@ -5085,11 +5088,11 @@
     <row r="2" spans="1:9" ht="42.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
       <c r="F2" s="20"/>
       <c r="G2" s="22"/>
       <c r="H2" s="23"/>
@@ -5640,12 +5643,12 @@
       <c r="B31" s="43" t="s">
         <v>514</v>
       </c>
-      <c r="C31" s="77" t="s">
+      <c r="C31" s="65" t="s">
         <v>525</v>
       </c>
       <c r="D31" s="16"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
       <c r="G31" s="17" t="s">
         <v>534</v>
       </c>
@@ -5663,11 +5666,11 @@
       <c r="B32" s="43" t="s">
         <v>523</v>
       </c>
-      <c r="C32" s="77" t="s">
+      <c r="C32" s="65" t="s">
         <v>525</v>
       </c>
       <c r="D32" s="16"/>
-      <c r="E32" s="76"/>
+      <c r="E32" s="64"/>
       <c r="F32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
@@ -5681,11 +5684,11 @@
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
-      <c r="E33" s="76" t="s">
+      <c r="E33" s="64" t="s">
         <v>521</v>
       </c>
       <c r="F33" s="16"/>
-      <c r="G33" s="76" t="s">
+      <c r="G33" s="64" t="s">
         <v>535</v>
       </c>
       <c r="H33" s="16"/>
@@ -5736,13 +5739,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="25"/>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -5755,19 +5758,19 @@
       <c r="A2" s="28"/>
       <c r="B2" s="10"/>
       <c r="C2" s="29"/>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="62" t="s">
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="72"/>
     </row>
     <row r="3" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
@@ -6642,7 +6645,7 @@
       <c r="J31" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="K31" s="77" t="s">
+      <c r="K31" s="65" t="s">
         <v>529</v>
       </c>
       <c r="L31" s="16"/>
@@ -6674,7 +6677,7 @@
       <c r="J32" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="K32" s="77" t="s">
+      <c r="K32" s="65" t="s">
         <v>529</v>
       </c>
       <c r="L32" s="16"/>
@@ -6739,8 +6742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="73" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A12" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="73" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6762,13 +6765,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="77" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
       <c r="F1" s="30"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -6785,19 +6788,19 @@
       <c r="B2" s="33"/>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="70" t="s">
         <v>283</v>
       </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="62" t="s">
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="70" t="s">
         <v>284</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
       <c r="N2" s="23"/>
       <c r="O2" s="24"/>
     </row>
@@ -7942,13 +7945,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="77" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
@@ -8316,7 +8319,7 @@
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
-      <c r="E33" s="76" t="s">
+      <c r="E33" s="64" t="s">
         <v>522</v>
       </c>
     </row>
@@ -8357,11 +8360,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="80"/>
     </row>
     <row r="2" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
@@ -8641,7 +8644,7 @@
       <c r="B31" s="43" t="s">
         <v>514</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="66" t="s">
         <v>531</v>
       </c>
     </row>
@@ -8652,7 +8655,7 @@
       <c r="B32" s="43" t="s">
         <v>523</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C32" s="66" t="s">
         <v>531</v>
       </c>
     </row>
@@ -8663,7 +8666,7 @@
       <c r="B33" s="43" t="s">
         <v>517</v>
       </c>
-      <c r="C33" s="79" t="s">
+      <c r="C33" s="67" t="s">
         <v>518</v>
       </c>
     </row>
@@ -8696,8 +8699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8710,14 +8713,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="72"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
@@ -8861,7 +8864,7 @@
       <c r="E10" s="43" t="s">
         <v>362</v>
       </c>
-      <c r="F10" s="80">
+      <c r="F10" s="68">
         <v>39695</v>
       </c>
     </row>
